--- a/biology/Biologie cellulaire et moléculaire/Stéréocil/Stéréocil.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Stéréocil/Stéréocil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St%C3%A9r%C3%A9ocil</t>
+          <t>Stéréocil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les stéréocils sont des expansions cytoplasmiques ramifiées longues (&gt; 2 μm), fines (0,02 μm) et immobiles  (contrairement aux cils vibratiles), présentes au niveau du pôle apical de certaines cellules épithéliales. Semblables à des  microvillosités très longues qui s'agglutinent en pinceaux, comme dans l'épididyme.[réf. nécessaire] Chaque stéréocil est parallèle à ses voisins au niveau de sa base. Mais plus on progresse vers les extrémités distales, plus ils deviennent sinueux et s'enchevêtrent avec leurs voisins. En observation microscopique (microscopie électronique à transmission) ces caractéristiques permettent de les différencier des microvillosités.
 Leur immobilité est due au fait qu'ils contiennent des structures d'actine.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>St%C3%A9r%C3%A9ocil</t>
+          <t>Stéréocil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Kinocil</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les stéréocils ne sont pas à confondre avec les kinocils. Les kinocils sont les cils mobiles formés à partir du cytosquelette de microtubule (avec son propre corpuscule basal, il n'est donc pas relié aux microtubules des centrioles). 
  Portail de la biologie cellulaire et moléculaire                     </t>
